--- a/gradCam/YoloVGGBaseModelMaxPConvTrials.xlsx
+++ b/gradCam/YoloVGGBaseModelMaxPConvTrials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josem\Documents\schoolWork\MQP\Git\Brain-Scans-MQP\gradCam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CF4879-433F-45A4-9430-A27B939EF749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694E84CB-54B0-47B8-9794-8D5217F5D5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="23250" windowHeight="11325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TrainMSE" sheetId="1" r:id="rId1"/>
@@ -109,19 +109,103 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -397,23 +481,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:AE40"/>
+  <dimension ref="A3:AE11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
@@ -508,7 +591,7 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>77.223815111013494</v>
       </c>
       <c r="C4">
@@ -576,7 +659,7 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>2.0445201649115599</v>
       </c>
       <c r="C5">
@@ -626,7 +709,7 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>2.4681650893046299</v>
       </c>
       <c r="C6">
@@ -706,7 +789,7 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>1.9786788500272301</v>
       </c>
       <c r="C7">
@@ -985,129 +1068,57 @@
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B10"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B12"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B13"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B14"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B15"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B16"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B4:AE4">
+    <cfRule type="top10" dxfId="11" priority="6" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:AE5">
+    <cfRule type="top10" dxfId="10" priority="1" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:AE6">
+    <cfRule type="top10" dxfId="9" priority="2" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:AE7">
+    <cfRule type="top10" dxfId="8" priority="3" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:AE8">
+    <cfRule type="top10" dxfId="7" priority="4" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:AE9">
+    <cfRule type="top10" dxfId="6" priority="5" bottom="1" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4DC21D-3B8A-48FC-AE3E-8EFE21A9CD80}">
-  <dimension ref="A3:AE43"/>
+  <dimension ref="A3:AE14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
@@ -1202,7 +1213,7 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>8.0772734483083095</v>
       </c>
       <c r="C4">
@@ -1270,7 +1281,7 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>0.69379880030949903</v>
       </c>
       <c r="C5">
@@ -1320,7 +1331,7 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>2.9753493666648798</v>
       </c>
       <c r="C6">
@@ -1400,7 +1411,7 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0.46870410442352201</v>
       </c>
       <c r="C7">
@@ -1679,105 +1690,34 @@
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B13"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B15"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B16"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B4:AE4">
+    <cfRule type="top10" dxfId="5" priority="1" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:AE5">
+    <cfRule type="top10" dxfId="4" priority="2" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:AE6">
+    <cfRule type="top10" dxfId="3" priority="3" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:AE7">
+    <cfRule type="top10" dxfId="2" priority="4" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:AE8">
+    <cfRule type="top10" dxfId="1" priority="5" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:AE9">
+    <cfRule type="top10" dxfId="0" priority="6" bottom="1" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1793,14 +1733,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
@@ -1895,7 +1834,7 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>-1.9366687680936201</v>
       </c>
       <c r="C4">
@@ -1963,7 +1902,7 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>-2.0815761883430399</v>
       </c>
       <c r="C5">
@@ -2013,7 +1952,7 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>-2.0145173609631799</v>
       </c>
       <c r="C6">
@@ -2093,7 +2032,7 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>-2.2486717253118398</v>
       </c>
       <c r="C7">
@@ -2387,14 +2326,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
@@ -2489,7 +2427,7 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>-3.0968632944027998</v>
       </c>
       <c r="C4">
@@ -2557,7 +2495,7 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>-3.0504424842031401</v>
       </c>
       <c r="C5">
@@ -2607,7 +2545,7 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>-3.3387789950892999</v>
       </c>
       <c r="C6">
@@ -2687,7 +2625,7 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>-5.5412569703537802</v>
       </c>
       <c r="C7">
